--- a/Doc/휘모리.xlsx
+++ b/Doc/휘모리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\JangGu\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8681164-2AC0-4932-9DD1-081879FACDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,6 +248,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -258,13 +263,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,14 +1195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1212,65 +1211,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="5" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
@@ -1307,15 +1306,15 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1345,10 +1344,10 @@
       </c>
     </row>
     <row r="9" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1378,16 +1377,16 @@
       <c r="Q9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1417,14 +1416,14 @@
       <c r="Q10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1459,15 +1458,15 @@
       </c>
     </row>
     <row r="13" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1500,10 +1499,10 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1533,16 +1532,16 @@
       <c r="P14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="3:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1572,14 +1571,14 @@
       <c r="P15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" spans="3:20" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1614,15 +1613,15 @@
       </c>
     </row>
     <row r="18" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1655,10 +1654,10 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1688,16 +1687,16 @@
       <c r="P19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="16"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1710,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>15</v>
@@ -1727,14 +1726,14 @@
       <c r="P20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1816,15 +1815,15 @@
       </c>
     </row>
     <row r="25" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1856,10 +1855,10 @@
       </c>
     </row>
     <row r="26" spans="3:23" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1889,16 +1888,16 @@
       <c r="P26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="S26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="15"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="3:23" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1925,14 +1924,14 @@
       <c r="O27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="3:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1987,15 +1986,15 @@
       </c>
     </row>
     <row r="32" spans="3:23" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -2021,10 +2020,10 @@
       </c>
     </row>
     <row r="33" spans="6:20" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -2048,14 +2047,14 @@
       <c r="O33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="6:20" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -2076,14 +2075,14 @@
       <c r="O34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" spans="6:20" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -2107,22 +2106,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D1:T2"/>
     <mergeCell ref="D3:T3"/>
@@ -2139,6 +2122,22 @@
     <mergeCell ref="S26:T27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
